--- a/src/assets/zxsj_mb/zxtb_k14_hjqkxs.xlsx
+++ b/src/assets/zxsj_mb/zxtb_k14_hjqkxs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="9864"/>
+    <workbookView windowWidth="23040" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>年度</t>
   </si>
@@ -52,25 +52,34 @@
     <t>张三</t>
   </si>
   <si>
+    <t>文艺体育类</t>
+  </si>
+  <si>
+    <t>B国家</t>
+  </si>
+  <si>
+    <t>先进个人</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>创新活动类</t>
+  </si>
+  <si>
+    <t>C省部</t>
+  </si>
+  <si>
+    <t>奉贤分校</t>
+  </si>
+  <si>
+    <t>优秀党员</t>
+  </si>
+  <si>
+    <t>王五</t>
+  </si>
+  <si>
     <t>专业竞赛类</t>
-  </si>
-  <si>
-    <t>先进个人</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>C省部</t>
-  </si>
-  <si>
-    <t>奉贤分校</t>
-  </si>
-  <si>
-    <t>优秀党员</t>
-  </si>
-  <si>
-    <t>王五</t>
   </si>
 </sst>
 </file>
@@ -78,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -101,6 +110,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -108,30 +124,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,20 +160,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -220,6 +213,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -231,6 +232,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,43 +262,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,127 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,32 +467,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +528,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -567,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,7 +1050,9 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3"/>
@@ -1086,7 +1097,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9">
       <c r="A2" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B2" s="2">
         <v>51252</v>
@@ -1109,11 +1120,13 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:9">
       <c r="A3" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B3" s="2">
         <v>51252</v>
@@ -1122,10 +1135,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -1134,27 +1147,27 @@
         <v>2017</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B4" s="2">
         <v>31009</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
@@ -1163,13 +1176,21 @@
         <v>2017</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
+      <formula1>"专业竞赛类,创新活动类,技能竞赛类,文艺体育类"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
+      <formula1>"A国际,B国家,C省部,D区级"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
